--- a/data/clean/turism_expenditure_by_ccaa_item.xlsx
+++ b/data/clean/turism_expenditure_by_ccaa_item.xlsx
@@ -465,12 +465,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -570,12 +570,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -612,12 +612,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -633,12 +633,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -654,12 +654,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -675,12 +675,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -696,12 +696,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -717,12 +717,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -759,12 +759,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -822,12 +822,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -864,12 +864,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -885,12 +885,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -906,12 +906,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -927,12 +927,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -969,12 +969,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -990,12 +990,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turista</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Turista</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2313,12 +2313,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en paquete turístico</t>
+          <t>Gasto en paquete turístico</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3237,12 +3237,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3258,12 +3258,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3405,12 +3405,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto no incluido en paquete turístico</t>
+          <t>Gasto no incluido en paquete turístico</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3636,12 +3636,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3720,12 +3720,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4014,12 +4014,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4287,12 +4287,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en transporte internacional</t>
+          <t>Gasto en transporte internacional</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4686,12 +4686,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4749,12 +4749,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4833,12 +4833,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4854,12 +4854,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4875,12 +4875,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -5127,12 +5127,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -5190,12 +5190,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -5232,12 +5232,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -5400,12 +5400,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -5421,12 +5421,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -5442,12 +5442,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en alojamiento</t>
+          <t>Gasto en alojamiento</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -5505,12 +5505,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -5610,12 +5610,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -5694,12 +5694,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -5715,12 +5715,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5799,12 +5799,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5862,12 +5862,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -5883,12 +5883,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -5904,12 +5904,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5946,12 +5946,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5988,12 +5988,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -6072,12 +6072,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -6093,12 +6093,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -6114,12 +6114,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -6135,12 +6135,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -6156,12 +6156,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -6177,12 +6177,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -6219,12 +6219,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -6282,12 +6282,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -6324,12 +6324,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6387,12 +6387,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -6450,12 +6450,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en manutención</t>
+          <t>Gasto en manutención</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -6534,12 +6534,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -6555,12 +6555,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -6597,12 +6597,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6807,12 +6807,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6828,12 +6828,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6849,12 +6849,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6870,12 +6870,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -6891,12 +6891,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6933,12 +6933,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -7017,12 +7017,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -7038,12 +7038,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -7080,12 +7080,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -7122,12 +7122,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -7143,12 +7143,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -7185,12 +7185,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -7227,12 +7227,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -7248,12 +7248,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -7269,12 +7269,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -7290,12 +7290,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -7374,12 +7374,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7395,12 +7395,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7437,12 +7437,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -7500,12 +7500,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto en actividades</t>
+          <t>Gasto en actividades</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7605,12 +7605,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -7668,12 +7668,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -7689,12 +7689,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -7752,12 +7752,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andalucía</t>
+          <t>Andalucía</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -7773,12 +7773,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -7794,12 +7794,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -7836,12 +7836,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -7878,12 +7878,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Balears, Illes</t>
+          <t>Balears, Illes</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -7899,12 +7899,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -7941,12 +7941,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -7983,12 +7983,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canarias</t>
+          <t>Canarias</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -8067,12 +8067,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -8130,12 +8130,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cataluña</t>
+          <t>Cataluña</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -8151,12 +8151,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -8172,12 +8172,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -8193,12 +8193,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -8214,12 +8214,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -8256,12 +8256,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comunitat Valenciana</t>
+          <t>Comunitat Valenciana</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -8277,12 +8277,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -8298,12 +8298,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -8319,12 +8319,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -8340,12 +8340,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -8382,12 +8382,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Madrid, Comunidad de</t>
+          <t>Madrid, Comunidad de</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otros gastos</t>
+          <t>Otros gastos</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otras Comunidades Autónomas</t>
+          <t>Otras Comunidades Autónomas</t>
         </is>
       </c>
       <c r="D385" t="n">

--- a/data/clean/turism_expenditure_by_ccaa_item.xlsx
+++ b/data/clean/turism_expenditure_by_ccaa_item.xlsx
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Gasto total</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Otras Comunidades Autónomas</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Turista</t>
         </is>
       </c>
       <c r="D49" t="n">
